--- a/DFT_absorption/absorption_energies.xlsx
+++ b/DFT_absorption/absorption_energies.xlsx
@@ -8,20 +8,174 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardocabiati/Desktop/Cose_brutte_PoliMI/V_anno/II_semestre/Molecular_Modeling_for_Materials/MMoM_project/MMoM_project/DFT_absorption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2136FB3-F3AD-984E-B541-B4D01EAFF75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FF81FBCA-4B12-6D46-BFEB-492CC144F732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{BDE33051-051D-5449-958A-46A8E86A2B7A}"/>
   </bookViews>
   <sheets>
     <sheet name="absorption_energies" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+  <si>
+    <t>number of hydrogen
+ moleclues</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>graphene-H2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Ry]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>H2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Ry]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>graphene</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Ry]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>absorption</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Ry]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>H2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Ry]
+single molecule</t>
+    </r>
+  </si>
+  <si>
+    <t>K Point Calculation (6 6 2 1 1 1)</t>
+  </si>
+  <si>
+    <t>Gamma Point Calculation (1 1 1 0 0 0)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,8 +310,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +512,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -453,6 +640,230 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -498,8 +909,69 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -556,6 +1028,2054 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Gamma Point Absorption Energies</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>absorption_energies!$F$5:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12650841999993645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3735660000002099E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6626810000011574E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4672249999980522E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.7186199999914606E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.9068200000401703E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.17862211000004891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.17181716999999708</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.17629233000002387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-272B-3742-9D2E-6E490D575C7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="140360271"/>
+        <c:axId val="465597439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140360271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465597439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465597439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140360271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K Point Absorption Energies</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>absorption_energies!$F$20:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.1772600000012972E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.2354440000017348E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.11561915999999428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.12400164000001723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.12157080999998016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.13892937000002803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13993482000000768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14867687999998225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5FB-9B49-83A3-BBEB9F99C41A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="666150592"/>
+        <c:axId val="839233711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="666150592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839233711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="839233711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666150592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1136650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4496744" cy="334194"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C15A64-04E5-6162-59A4-5661FE66D68C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1962150" y="3435350"/>
+              <a:ext cx="4496744" cy="334194"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="2000" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑏𝑠</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑔𝑟𝑎𝑝h𝑒𝑛𝑒</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐻</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>− </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑔𝑟𝑎𝑝h𝑒𝑛𝑒</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> − </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐻</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="it-IT" sz="2000" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C15A64-04E5-6162-59A4-5661FE66D68C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1962150" y="3435350"/>
+              <a:ext cx="4496744" cy="334194"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="2000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐸</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="2000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="2000" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎𝑏𝑠=𝐸_(𝑔𝑟𝑎𝑝ℎ𝑒𝑛𝑒−𝐻_2 )− 𝐸_𝑔𝑟𝑎𝑝ℎ𝑒𝑛𝑒  − 𝐸_(𝐻_2 )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D2AA82-2827-D066-D8A5-D8840F074655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E89D158-1402-37FE-B8A8-05B47F527149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -875,12 +3395,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551D8F56-50D6-914D-A7B9-95BE5B4B1EDE}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="141" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:9" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:9" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>-287.69342691000003</v>
+      </c>
+      <c r="D5" s="13">
+        <f>$I$5*$B5</f>
+        <v>-2.2750997499999999</v>
+      </c>
+      <c r="E5" s="13">
+        <f>-285.54483558</f>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F5" s="16">
+        <f>$C5-D5-E5</f>
+        <v>0.12650841999993645</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-2.2750997499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="10">
+        <f>B5+1</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>-290.01129942</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" ref="D6:D13" si="0">$I$5*$B6</f>
+        <v>-4.5501994999999997</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" ref="E6:E13" si="1">-285.54483558</f>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F13" si="2">$C6-D6-E6</f>
+        <v>8.3735660000002099E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="10">
+        <f>B6+1</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="14">
+        <v>-292.31350801999997</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>-6.8252992499999996</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="2"/>
+        <v>5.6626810000011574E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="10">
+        <f>B7+1</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="14">
+        <v>-294.62056232999998</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>-9.1003989999999995</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="2"/>
+        <v>2.4672249999980522E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="10">
+        <f>B8+1</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="14">
+        <v>-296.92805294999999</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>-11.375498749999998</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="2"/>
+        <v>-7.7186199999914606E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="10">
+        <f>B9+1</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="14">
+        <v>-299.20234090000002</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>-13.650598499999999</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="2"/>
+        <v>-6.9068200000401703E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="10">
+        <f>B10+1</f>
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
+        <v>-301.64915594000001</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>-15.92569825</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.17862211000004891</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="10">
+        <f>B11+1</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="14">
+        <v>-303.91745075</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>-18.200797999999999</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.17181716999999708</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <f>B12+1</f>
+        <v>9</v>
+      </c>
+      <c r="C13" s="15">
+        <v>-306.19702566000001</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="0"/>
+        <v>-20.475897749999998</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.17629233000002387</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:9" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="2:9" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13">
+        <v>-289.37711379000001</v>
+      </c>
+      <c r="D20" s="13">
+        <f>$I$20*$B20</f>
+        <v>-2.2750271099999999</v>
+      </c>
+      <c r="E20" s="13">
+        <v>-287.11126394000001</v>
+      </c>
+      <c r="F20" s="16">
+        <f>$C20-D20-E20</f>
+        <v>9.1772600000012972E-3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-2.2750271099999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="10">
+        <f>B20+1</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="14">
+        <v>-291.74367260000002</v>
+      </c>
+      <c r="D21" s="14">
+        <f>$I$20*$B21</f>
+        <v>-4.5500542199999998</v>
+      </c>
+      <c r="E21" s="14">
+        <v>-287.11126394000001</v>
+      </c>
+      <c r="F21" s="17">
+        <f t="shared" ref="F21:F28" si="3">$C21-D21-E21</f>
+        <v>-8.2354440000017348E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="10">
+        <f>B21+1</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="14">
+        <v>-294.05196443</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" ref="D22:D28" si="4">$I$20*$B22</f>
+        <v>-6.8250813299999997</v>
+      </c>
+      <c r="E22" s="14">
+        <v>-287.11126394000001</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.11561915999999428</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="10">
+        <f>B22+1</f>
+        <v>4</v>
+      </c>
+      <c r="C23" s="14">
+        <v>-296.33537402000002</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="4"/>
+        <v>-9.1001084399999996</v>
+      </c>
+      <c r="E23" s="14">
+        <v>-287.11126394000001</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.12400164000001723</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="10">
+        <f>B23+1</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="14">
+        <v>-298.60797029999998</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="4"/>
+        <v>-11.37513555</v>
+      </c>
+      <c r="E24" s="14">
+        <v>-287.11126394000001</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.12157080999998016</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="10">
+        <f>B24+1</f>
+        <v>6</v>
+      </c>
+      <c r="C25" s="14">
+        <v>-300.90035597000002</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="4"/>
+        <v>-13.650162659999999</v>
+      </c>
+      <c r="E25" s="14">
+        <v>-287.11126394000001</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.13892937000002803</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="10">
+        <f>B25+1</f>
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <v>-303.17638853</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="4"/>
+        <v>-15.925189769999999</v>
+      </c>
+      <c r="E26" s="14">
+        <v>-287.11126394000001</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.13993482000000768</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>8</v>
+      </c>
+      <c r="C27" s="14">
+        <v>-305.46015770000002</v>
+      </c>
+      <c r="D27" s="14">
+        <f>$I$20*$B27</f>
+        <v>-18.200216879999999</v>
+      </c>
+      <c r="E27" s="14">
+        <v>-287.11126394000001</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.14867687999998225</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12">
+        <v>-306.08814948000003</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="4"/>
+        <v>-20.475243989999999</v>
+      </c>
+      <c r="E28" s="15">
+        <v>-287.11126394000001</v>
+      </c>
+      <c r="F28" s="18">
+        <f t="shared" si="3"/>
+        <v>1.498358450000012</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B18:F18"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DFT_absorption/absorption_energies.xlsx
+++ b/DFT_absorption/absorption_energies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardocabiati/Desktop/Cose_brutte_PoliMI/V_anno/II_semestre/Molecular_Modeling_for_Materials/MMoM_project/MMoM_project/DFT_absorption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FF81FBCA-4B12-6D46-BFEB-492CC144F732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D89A71-7512-9041-A4E5-E31F4F0BF127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{BDE33051-051D-5449-958A-46A8E86A2B7A}"/>
   </bookViews>
@@ -525,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -864,6 +864,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -909,7 +997,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,15 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -963,6 +1042,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,6 +1059,33 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1375,28 +1490,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9.1772600000012972E-3</c:v>
+                  <c:v>7.6951339999993706E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.2354440000017348E-2</c:v>
+                  <c:v>-1.4580360000024939E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11561915999999428</c:v>
+                  <c:v>-4.7845080000001872E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.12400164000001723</c:v>
+                  <c:v>-5.6227560000024823E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.12157080999998016</c:v>
+                  <c:v>-5.3796729999987747E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.13892937000002803</c:v>
+                  <c:v>-7.115529000003562E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.13993482000000768</c:v>
+                  <c:v>-7.2160740000015267E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.14867687999998225</c:v>
+                  <c:v>-8.0902799999989838E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,8 +2825,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4496744" cy="334194"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2753,6 +2868,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2935,7 +3051,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3397,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551D8F56-50D6-914D-A7B9-95BE5B4B1EDE}">
   <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="141" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3414,13 +3530,13 @@
   <sheetData>
     <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:9" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="2:9" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -3443,21 +3559,21 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>-287.69342691000003</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <f>$I$5*$B5</f>
         <v>-2.2750997499999999</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <f>-285.54483558</f>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="13">
         <f>$C5-D5-E5</f>
         <v>0.12650841999993645</v>
       </c>
@@ -3466,170 +3582,170 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="10">
-        <f>B5+1</f>
+      <c r="B6" s="7">
+        <f t="shared" ref="B6:B13" si="0">B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>-290.01129942</v>
       </c>
-      <c r="D6" s="14">
-        <f t="shared" ref="D6:D13" si="0">$I$5*$B6</f>
+      <c r="D6" s="11">
+        <f t="shared" ref="D6:D13" si="1">$I$5*$B6</f>
         <v>-4.5501994999999997</v>
       </c>
-      <c r="E6" s="14">
-        <f t="shared" ref="E6:E13" si="1">-285.54483558</f>
+      <c r="E6" s="11">
+        <f t="shared" ref="E6:E13" si="2">-285.54483558</f>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F6" s="17">
-        <f t="shared" ref="F6:F13" si="2">$C6-D6-E6</f>
+      <c r="F6" s="14">
+        <f t="shared" ref="F6:F13" si="3">$C6-D6-E6</f>
         <v>8.3735660000002099E-2</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="10">
-        <f>B6+1</f>
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>-292.31350801999997</v>
       </c>
-      <c r="D7" s="14">
-        <f t="shared" si="0"/>
+      <c r="D7" s="11">
+        <f t="shared" si="1"/>
         <v>-6.8252992499999996</v>
       </c>
-      <c r="E7" s="14">
-        <f t="shared" si="1"/>
+      <c r="E7" s="11">
+        <f t="shared" si="2"/>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F7" s="17">
-        <f t="shared" si="2"/>
+      <c r="F7" s="14">
+        <f t="shared" si="3"/>
         <v>5.6626810000011574E-2</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="10">
-        <f>B7+1</f>
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>-294.62056232999998</v>
       </c>
-      <c r="D8" s="14">
-        <f t="shared" si="0"/>
+      <c r="D8" s="11">
+        <f t="shared" si="1"/>
         <v>-9.1003989999999995</v>
       </c>
-      <c r="E8" s="14">
-        <f t="shared" si="1"/>
+      <c r="E8" s="11">
+        <f t="shared" si="2"/>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F8" s="17">
-        <f t="shared" si="2"/>
+      <c r="F8" s="14">
+        <f t="shared" si="3"/>
         <v>2.4672249999980522E-2</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="10">
-        <f>B8+1</f>
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>-296.92805294999999</v>
       </c>
-      <c r="D9" s="14">
-        <f t="shared" si="0"/>
+      <c r="D9" s="11">
+        <f t="shared" si="1"/>
         <v>-11.375498749999998</v>
       </c>
-      <c r="E9" s="14">
-        <f t="shared" si="1"/>
+      <c r="E9" s="11">
+        <f t="shared" si="2"/>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F9" s="17">
-        <f t="shared" si="2"/>
+      <c r="F9" s="14">
+        <f t="shared" si="3"/>
         <v>-7.7186199999914606E-3</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="10">
-        <f>B9+1</f>
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>-299.20234090000002</v>
       </c>
-      <c r="D10" s="14">
-        <f t="shared" si="0"/>
+      <c r="D10" s="11">
+        <f t="shared" si="1"/>
         <v>-13.650598499999999</v>
       </c>
-      <c r="E10" s="14">
-        <f t="shared" si="1"/>
+      <c r="E10" s="11">
+        <f t="shared" si="2"/>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F10" s="17">
-        <f t="shared" si="2"/>
+      <c r="F10" s="14">
+        <f t="shared" si="3"/>
         <v>-6.9068200000401703E-3</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="10">
-        <f>B10+1</f>
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>-301.64915594000001</v>
       </c>
-      <c r="D11" s="14">
-        <f t="shared" si="0"/>
+      <c r="D11" s="11">
+        <f t="shared" si="1"/>
         <v>-15.92569825</v>
       </c>
-      <c r="E11" s="14">
-        <f t="shared" si="1"/>
+      <c r="E11" s="11">
+        <f t="shared" si="2"/>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F11" s="17">
-        <f t="shared" si="2"/>
+      <c r="F11" s="14">
+        <f t="shared" si="3"/>
         <v>-0.17862211000004891</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="10">
-        <f>B11+1</f>
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>-303.91745075</v>
       </c>
-      <c r="D12" s="14">
-        <f t="shared" si="0"/>
+      <c r="D12" s="11">
+        <f t="shared" si="1"/>
         <v>-18.200797999999999</v>
       </c>
-      <c r="E12" s="14">
-        <f t="shared" si="1"/>
+      <c r="E12" s="11">
+        <f t="shared" si="2"/>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F12" s="17">
-        <f t="shared" si="2"/>
+      <c r="F12" s="14">
+        <f t="shared" si="3"/>
         <v>-0.17181716999999708</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
-        <f>B12+1</f>
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>-306.19702566000001</v>
       </c>
-      <c r="D13" s="15">
-        <f t="shared" si="0"/>
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
         <v>-20.475897749999998</v>
       </c>
-      <c r="E13" s="15">
-        <f t="shared" si="1"/>
+      <c r="E13" s="12">
+        <f t="shared" si="2"/>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F13" s="18">
-        <f t="shared" si="2"/>
+      <c r="F13" s="15">
+        <f t="shared" si="3"/>
         <v>-0.17629233000002387</v>
       </c>
     </row>
@@ -3664,184 +3780,184 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="10">
         <v>-289.37711379000001</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="22">
         <f>$I$20*$B20</f>
         <v>-2.2750271099999999</v>
       </c>
-      <c r="E20" s="13">
-        <v>-287.11126394000001</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="28">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F20" s="25">
         <f>$C20-D20-E20</f>
-        <v>9.1772600000012972E-3</v>
+        <v>7.6951339999993706E-2</v>
       </c>
       <c r="I20" s="1">
         <v>-2.2750271099999999</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="10">
-        <f>B20+1</f>
+      <c r="B21" s="7">
+        <f t="shared" ref="B21:B27" si="4">B20+1</f>
         <v>2</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <v>-291.74367260000002</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="23">
         <f>$I$20*$B21</f>
         <v>-4.5500542199999998</v>
       </c>
-      <c r="E21" s="14">
-        <v>-287.11126394000001</v>
-      </c>
-      <c r="F21" s="17">
-        <f t="shared" ref="F21:F28" si="3">$C21-D21-E21</f>
-        <v>-8.2354440000017348E-2</v>
+      <c r="E21" s="29">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" ref="F21:F28" si="5">$C21-D21-E21</f>
+        <v>-1.4580360000024939E-2</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="10">
-        <f>B21+1</f>
+      <c r="B22" s="7">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>-294.05196443</v>
       </c>
-      <c r="D22" s="14">
-        <f t="shared" ref="D22:D28" si="4">$I$20*$B22</f>
+      <c r="D22" s="23">
+        <f t="shared" ref="D22:D28" si="6">$I$20*$B22</f>
         <v>-6.8250813299999997</v>
       </c>
-      <c r="E22" s="14">
-        <v>-287.11126394000001</v>
-      </c>
-      <c r="F22" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.11561915999999428</v>
+      <c r="E22" s="29">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F22" s="26">
+        <f t="shared" si="5"/>
+        <v>-4.7845080000001872E-2</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="10">
-        <f>B22+1</f>
+      <c r="B23" s="7">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <v>-296.33537402000002</v>
       </c>
-      <c r="D23" s="14">
-        <f t="shared" si="4"/>
+      <c r="D23" s="23">
+        <f t="shared" si="6"/>
         <v>-9.1001084399999996</v>
       </c>
-      <c r="E23" s="14">
-        <v>-287.11126394000001</v>
-      </c>
-      <c r="F23" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.12400164000001723</v>
+      <c r="E23" s="29">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F23" s="26">
+        <f t="shared" si="5"/>
+        <v>-5.6227560000024823E-2</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="10">
-        <f>B23+1</f>
+      <c r="B24" s="7">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>-298.60797029999998</v>
       </c>
-      <c r="D24" s="14">
-        <f t="shared" si="4"/>
+      <c r="D24" s="23">
+        <f t="shared" si="6"/>
         <v>-11.37513555</v>
       </c>
-      <c r="E24" s="14">
-        <v>-287.11126394000001</v>
-      </c>
-      <c r="F24" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.12157080999998016</v>
+      <c r="E24" s="29">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F24" s="26">
+        <f t="shared" si="5"/>
+        <v>-5.3796729999987747E-2</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="10">
-        <f>B24+1</f>
+      <c r="B25" s="7">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <v>-300.90035597000002</v>
       </c>
-      <c r="D25" s="14">
-        <f t="shared" si="4"/>
+      <c r="D25" s="23">
+        <f t="shared" si="6"/>
         <v>-13.650162659999999</v>
       </c>
-      <c r="E25" s="14">
-        <v>-287.11126394000001</v>
-      </c>
-      <c r="F25" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.13892937000002803</v>
+      <c r="E25" s="29">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F25" s="26">
+        <f t="shared" si="5"/>
+        <v>-7.115529000003562E-2</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="10">
-        <f>B25+1</f>
+      <c r="B26" s="7">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>-303.17638853</v>
       </c>
-      <c r="D26" s="14">
-        <f t="shared" si="4"/>
+      <c r="D26" s="23">
+        <f t="shared" si="6"/>
         <v>-15.925189769999999</v>
       </c>
-      <c r="E26" s="14">
-        <v>-287.11126394000001</v>
-      </c>
-      <c r="F26" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.13993482000000768</v>
+      <c r="E26" s="29">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F26" s="26">
+        <f t="shared" si="5"/>
+        <v>-7.2160740000015267E-2</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
-        <f>B26+1</f>
+      <c r="B27" s="7">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <v>-305.46015770000002</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="23">
         <f>$I$20*$B27</f>
         <v>-18.200216879999999</v>
       </c>
-      <c r="E27" s="14">
-        <v>-287.11126394000001</v>
-      </c>
-      <c r="F27" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.14867687999998225</v>
+      <c r="E27" s="29">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F27" s="26">
+        <f t="shared" si="5"/>
+        <v>-8.0902799999989838E-2</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
+      <c r="B28" s="8">
         <v>9</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="9">
         <v>-306.08814948000003</v>
       </c>
-      <c r="D28" s="15">
-        <f t="shared" si="4"/>
+      <c r="D28" s="24">
+        <f t="shared" si="6"/>
         <v>-20.475243989999999</v>
       </c>
-      <c r="E28" s="15">
-        <v>-287.11126394000001</v>
-      </c>
-      <c r="F28" s="18">
-        <f t="shared" si="3"/>
-        <v>1.498358450000012</v>
+      <c r="E28" s="30">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F28" s="27">
+        <f t="shared" si="5"/>
+        <v>1.5661325300000044</v>
       </c>
     </row>
   </sheetData>

--- a/DFT_absorption/absorption_energies.xlsx
+++ b/DFT_absorption/absorption_energies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardocabiati/Desktop/Cose_brutte_PoliMI/V_anno/II_semestre/Molecular_Modeling_for_Materials/MMoM_project/MMoM_project/DFT_absorption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D89A71-7512-9041-A4E5-E31F4F0BF127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFC1FAE-5766-4D46-9B67-6A831BB9749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{BDE33051-051D-5449-958A-46A8E86A2B7A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>number of hydrogen
  moleclues</t>
@@ -170,12 +170,23 @@
   <si>
     <t>Gamma Point Calculation (1 1 1 0 0 0)</t>
   </si>
+  <si>
+    <t>orginal interlayer 
+distance [crystal]</t>
+  </si>
+  <si>
+    <t>Interlayer 
+expansion %</t>
+  </si>
+  <si>
+    <t>H/C ratio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,6 +341,13 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -525,7 +543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -708,52 +726,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -896,26 +868,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -947,6 +899,34 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -997,7 +977,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1008,38 +988,53 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,42 +1046,48 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1711,6 +1712,665 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Interlayer expansion %</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>absorption_energies!$A$20:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>absorption_energies!$G$5:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.419908838040285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45775346698012542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48079691301886901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55817104495599956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60869521789678438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60869521789678438</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63506320380424552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83037017667958157</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84517071811619249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3692-3A4A-B660-D45FCC9B6D00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="624414079"/>
+        <c:axId val="824614223"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="624414079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="824614223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="824614223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624414079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>interlayer expansion %</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>absorption_energies!$A$20:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>absorption_energies!$G$20:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.29330810248936023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35777418950791284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3818326381667228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38495473702771138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61272806478384134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65267639478834649</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67391303058983698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65573321006528185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6473536774097336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E61-4845-95D5-84D9F9C9165A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="992114319"/>
+        <c:axId val="1980814128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="992114319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1980814128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1980814128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="992114319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1791,6 +2451,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -2313,6 +3053,1030 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3191,6 +4955,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>817880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4569FCD-FCD5-5AA8-0D42-DA1C543F6914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>157480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>614680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A269473B-7926-5C1E-F381-2E691DA90F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3511,10 +5347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551D8F56-50D6-914D-A7B9-95BE5B4B1EDE}">
-  <dimension ref="B2:I28"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3526,19 +5362,24 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:9" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="2:9" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3548,422 +5389,590 @@
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="G4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>5</v>
       </c>
+      <c r="J4" s="25" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
+        <f>2*$B5/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>-287.69342691000003</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f>$I$5*$B5</f>
         <v>-2.2750997499999999</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="15">
         <f>-285.54483558</f>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="18">
         <f>$C5-D5-E5</f>
         <v>0.12650841999993645</v>
       </c>
+      <c r="G5" s="27">
+        <f>((0.8633043672-0.4420672485)-$J$5)/$J$5</f>
+        <v>0.419908838040285</v>
+      </c>
       <c r="I5" s="1">
         <v>-2.2750997499999999</v>
       </c>
+      <c r="J5" s="1">
+        <f>0.7966649037-0.5</f>
+        <v>0.29666490369999998</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="7">
-        <f t="shared" ref="B6:B13" si="0">B5+1</f>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
+        <f t="shared" ref="A6:A13" si="0">2*$B6/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" ref="B6:B13" si="1">B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>-290.01129942</v>
       </c>
-      <c r="D6" s="11">
-        <f t="shared" ref="D6:D13" si="1">$I$5*$B6</f>
+      <c r="D6" s="10">
+        <f t="shared" ref="D6:D13" si="2">$I$5*$B6</f>
         <v>-4.5501994999999997</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" ref="E6:E13" si="2">-285.54483558</f>
+      <c r="E6" s="16">
+        <f t="shared" ref="E6:E13" si="3">-285.54483558</f>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F6" s="14">
-        <f t="shared" ref="F6:F13" si="3">$C6-D6-E6</f>
+      <c r="F6" s="19">
+        <f t="shared" ref="F6:F13" si="4">$C6-D6-E6</f>
         <v>8.3735660000002099E-2</v>
       </c>
+      <c r="G6" s="28">
+        <f>((0.8618930176-0.4294287257)-$J$5)/$J$5</f>
+        <v>0.45775346698012542</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
         <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>-292.31350801999997</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
+        <f t="shared" si="2"/>
+        <v>-6.8252992499999996</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="3"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="4"/>
+        <v>5.6626810000011574E-2</v>
+      </c>
+      <c r="G7" s="28">
+        <f>((0.8633647288-0.4240642552)-$J$5)/$J$5</f>
+        <v>0.48079691301886901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="28">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B8" s="6">
         <f t="shared" si="1"/>
-        <v>-6.8252992499999996</v>
-      </c>
-      <c r="E7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-294.62056232999998</v>
+      </c>
+      <c r="D8" s="10">
         <f t="shared" si="2"/>
+        <v>-9.1003989999999995</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="3"/>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F8" s="19">
+        <f t="shared" si="4"/>
+        <v>2.4672249999980522E-2</v>
+      </c>
+      <c r="G8" s="28">
+        <f>((0.8690923553-0.4068376923)-$J$5)/$J$5</f>
+        <v>0.55817104495599956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-296.92805294999999</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="2"/>
+        <v>-11.375498749999998</v>
+      </c>
+      <c r="E9" s="16">
         <f t="shared" si="3"/>
-        <v>5.6626810000011574E-2</v>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="4"/>
+        <v>-7.7186199999914606E-3</v>
+      </c>
+      <c r="G9" s="28">
+        <f>((0.8827352815-0.4054918696)-$J$5)/$J$5</f>
+        <v>0.60869521789678438</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="28">
         <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="10">
+        <v>-299.20234090000002</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="2"/>
+        <v>-13.650598499999999</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="3"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="4"/>
+        <v>-6.9068200000401703E-3</v>
+      </c>
+      <c r="G10" s="28">
+        <f>((0.8827352815-0.4054918696)-$J$5)/$J$5</f>
+        <v>0.60869521789678438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="28">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
+        <v>-301.64915594000001</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="2"/>
+        <v>-15.92569825</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="3"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="4"/>
+        <v>-0.17862211000004891</v>
+      </c>
+      <c r="G11" s="28">
+        <f>((0.8863248798-0.4012590119)-$J$5)/$J$5</f>
+        <v>0.63506320380424552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="10">
+        <v>-303.91745075</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="2"/>
+        <v>-18.200797999999999</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="3"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="4"/>
+        <v>-0.17181716999999708</v>
+      </c>
+      <c r="G12" s="28">
+        <f>((0.9022008249-0.3591942327)-$J$5)/$J$5</f>
+        <v>0.83037017667958157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-306.19702566000001</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="2"/>
+        <v>-20.475897749999998</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="3"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="4"/>
+        <v>-0.17629233000002387</v>
+      </c>
+      <c r="G13" s="29">
+        <f>((0.9029325106-0.3555351172)-$J$5)/$J$5</f>
+        <v>0.84517071811619249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:10" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
-        <v>-294.62056232999998</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="shared" si="1"/>
-        <v>-9.1003989999999995</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="2"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="3"/>
-        <v>2.4672249999980522E-2</v>
+      <c r="G19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="11">
-        <v>-296.92805294999999</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" si="1"/>
-        <v>-11.375498749999998</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="2"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="3"/>
-        <v>-7.7186199999914606E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="11">
-        <v>-299.20234090000002</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="1"/>
-        <v>-13.650598499999999</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="2"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" si="3"/>
-        <v>-6.9068200000401703E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="11">
-        <v>-301.64915594000001</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="1"/>
-        <v>-15.92569825</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="2"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="3"/>
-        <v>-0.17862211000004891</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="11">
-        <v>-303.91745075</v>
-      </c>
-      <c r="D12" s="11">
-        <f t="shared" si="1"/>
-        <v>-18.200797999999999</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="2"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" si="3"/>
-        <v>-0.17181716999999708</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="12">
-        <v>-306.19702566000001</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" si="1"/>
-        <v>-20.475897749999998</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" si="2"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F13" s="15">
-        <f t="shared" si="3"/>
-        <v>-0.17629233000002387</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:9" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="2:9" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="39">
+        <f>2*$B20/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B20" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>-289.37711379000001</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="15">
         <f>$I$20*$B20</f>
         <v>-2.2750271099999999</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="12">
         <v>-287.17903802000001</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="18">
         <f>$C20-D20-E20</f>
         <v>7.6951339999993706E-2</v>
       </c>
+      <c r="G20" s="27">
+        <f>((0.8633043672-0.4420672485)-$J$20)/$J$20</f>
+        <v>0.29330810248936023</v>
+      </c>
       <c r="I20" s="1">
         <v>-2.2750271099999999</v>
       </c>
+      <c r="J20" s="1">
+        <f>0.8257051571-0.5</f>
+        <v>0.32570515710000003</v>
+      </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="7">
-        <f t="shared" ref="B21:B27" si="4">B20+1</f>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="40">
+        <f t="shared" ref="A21:A28" si="5">2*$B21/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" ref="B21:B27" si="6">B20+1</f>
         <v>2</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>-291.74367260000002</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="16">
         <f>$I$20*$B21</f>
         <v>-4.5500542199999998</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="13">
         <v>-287.17903802000001</v>
       </c>
-      <c r="F21" s="26">
-        <f t="shared" ref="F21:F28" si="5">$C21-D21-E21</f>
+      <c r="F21" s="19">
+        <f t="shared" ref="F21:F28" si="7">$C21-D21-E21</f>
         <v>-1.4580360000024939E-2</v>
       </c>
+      <c r="G21" s="28">
+        <f>((0.8823734886-0.4401394329)-$J$20)/$J$20</f>
+        <v>0.35777418950791284</v>
+      </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="7">
-        <f t="shared" si="4"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="40">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>-294.05196443</v>
       </c>
-      <c r="D22" s="23">
-        <f t="shared" ref="D22:D28" si="6">$I$20*$B22</f>
+      <c r="D22" s="16">
+        <f t="shared" ref="D22:D28" si="8">$I$20*$B22</f>
         <v>-6.8250813299999997</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="13">
         <v>-287.17903802000001</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="19">
+        <f t="shared" si="7"/>
+        <v>-4.7845080000001872E-2</v>
+      </c>
+      <c r="G22" s="28">
+        <f>((0.8898964206-0.4398264041)-$J$20)/$J$20</f>
+        <v>0.3818326381667228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="40">
         <f t="shared" si="5"/>
-        <v>-4.7845080000001872E-2</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-296.33537402000002</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="8"/>
+        <v>-9.1001084399999996</v>
+      </c>
+      <c r="E23" s="13">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="7"/>
+        <v>-5.6227560000024823E-2</v>
+      </c>
+      <c r="G23" s="28">
+        <f>((0.8880798374-0.4369929372)-$J$20)/$J$20</f>
+        <v>0.38495473702771138</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="7">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C23" s="11">
-        <v>-296.33537402000002</v>
-      </c>
-      <c r="D23" s="23">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="40">
+        <f t="shared" si="5"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B24" s="6">
         <f t="shared" si="6"/>
-        <v>-9.1001084399999996</v>
-      </c>
-      <c r="E23" s="29">
+        <v>5</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-298.60797029999998</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="8"/>
+        <v>-11.37513555</v>
+      </c>
+      <c r="E24" s="13">
         <v>-287.17903802000001</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F24" s="19">
+        <f t="shared" si="7"/>
+        <v>-5.3796729999987747E-2</v>
+      </c>
+      <c r="G24" s="28">
+        <f>((0.9175451566-0.3922713089)-$J$20)/$J$20</f>
+        <v>0.61272806478384134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="40">
         <f t="shared" si="5"/>
-        <v>-5.6227560000024823E-2</v>
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C25" s="10">
+        <v>-300.90035597000002</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="8"/>
+        <v>-13.650162659999999</v>
+      </c>
+      <c r="E25" s="13">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="7"/>
+        <v>-7.115529000003562E-2</v>
+      </c>
+      <c r="G25" s="28">
+        <f>((0.9260933603-0.3878081355)-$J$20)/$J$20</f>
+        <v>0.65267639478834649</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="7">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C24" s="11">
-        <v>-298.60797029999998</v>
-      </c>
-      <c r="D24" s="23">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="40">
+        <f t="shared" si="5"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B26" s="6">
         <f t="shared" si="6"/>
-        <v>-11.37513555</v>
-      </c>
-      <c r="E24" s="29">
+        <v>7</v>
+      </c>
+      <c r="C26" s="10">
+        <v>-303.17638853</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="8"/>
+        <v>-15.925189769999999</v>
+      </c>
+      <c r="E26" s="13">
         <v>-287.17903802000001</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F26" s="19">
+        <f t="shared" si="7"/>
+        <v>-7.2160740000015267E-2</v>
+      </c>
+      <c r="G26" s="28">
+        <f>((0.9345926362-0.3893905296)-$J$20)/$J$20</f>
+        <v>0.67391303058983698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="40">
         <f t="shared" si="5"/>
-        <v>-5.3796729999987747E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="7">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C25" s="11">
-        <v>-300.90035597000002</v>
-      </c>
-      <c r="D25" s="23">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B27" s="6">
         <f t="shared" si="6"/>
-        <v>-13.650162659999999</v>
-      </c>
-      <c r="E25" s="29">
-        <v>-287.17903802000001</v>
-      </c>
-      <c r="F25" s="26">
-        <f t="shared" si="5"/>
-        <v>-7.115529000003562E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="7">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="C26" s="11">
-        <v>-303.17638853</v>
-      </c>
-      <c r="D26" s="23">
-        <f t="shared" si="6"/>
-        <v>-15.925189769999999</v>
-      </c>
-      <c r="E26" s="29">
-        <v>-287.17903802000001</v>
-      </c>
-      <c r="F26" s="26">
-        <f t="shared" si="5"/>
-        <v>-7.2160740000015267E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="7">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>-305.46015770000002</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="16">
         <f>$I$20*$B27</f>
         <v>-18.200216879999999</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="13">
         <v>-287.17903802000001</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="19">
+        <f t="shared" si="7"/>
+        <v>-8.0902799999989838E-2</v>
+      </c>
+      <c r="G27" s="28">
+        <f>((0.9307256175-0.3914447722)-$J$20)/$J$20</f>
+        <v>0.65573321006528185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41">
         <f t="shared" si="5"/>
-        <v>-8.0902799999989838E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="B28" s="7">
         <v>9</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>-306.08814948000003</v>
       </c>
-      <c r="D28" s="24">
-        <f t="shared" si="6"/>
+      <c r="D28" s="17">
+        <f t="shared" si="8"/>
         <v>-20.475243989999999</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="14">
         <v>-287.17903802000001</v>
       </c>
-      <c r="F28" s="27">
-        <f t="shared" si="5"/>
+      <c r="F28" s="20">
+        <f t="shared" si="7"/>
         <v>1.5661325300000044</v>
+      </c>
+      <c r="G28" s="29">
+        <f>((0.9127527639-0.3762011756)-$J$20)/$J$20</f>
+        <v>0.6473536774097336</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/DFT_absorption/absorption_energies.xlsx
+++ b/DFT_absorption/absorption_energies.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardocabiati/Desktop/Cose_brutte_PoliMI/V_anno/II_semestre/Molecular_Modeling_for_Materials/MMoM_project/MMoM_project/DFT_absorption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFC1FAE-5766-4D46-9B67-6A831BB9749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE8749-CABC-E54C-AE61-6B141CAD8D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{BDE33051-051D-5449-958A-46A8E86A2B7A}"/>
+    <workbookView xWindow="2640" yWindow="1100" windowWidth="25220" windowHeight="17440" activeTab="1" xr2:uid="{BDE33051-051D-5449-958A-46A8E86A2B7A}"/>
   </bookViews>
   <sheets>
-    <sheet name="absorption_energies" sheetId="1" r:id="rId1"/>
+    <sheet name="gamma" sheetId="1" r:id="rId1"/>
+    <sheet name="k" sheetId="2" r:id="rId2"/>
+    <sheet name="conversion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>number of hydrogen
  moleclues</t>
@@ -165,28 +167,136 @@
     </r>
   </si>
   <si>
-    <t>K Point Calculation (6 6 2 1 1 1)</t>
-  </si>
-  <si>
-    <t>Gamma Point Calculation (1 1 1 0 0 0)</t>
-  </si>
-  <si>
-    <t>orginal interlayer 
-distance [crystal]</t>
-  </si>
-  <si>
     <t>Interlayer 
 expansion %</t>
   </si>
   <si>
     <t>H/C ratio</t>
   </si>
+  <si>
+    <t>TABLE OF CONVERSIONS (ENERGY)</t>
+  </si>
+  <si>
+    <t>hartree</t>
+  </si>
+  <si>
+    <t>eV</t>
+  </si>
+  <si>
+    <r>
+      <t>cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <t>kcal/mol</t>
+  </si>
+  <si>
+    <t>kJ/mol</t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>                                            out
+in</t>
+  </si>
+  <si>
+    <t>Ry</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>absorption</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [eV/H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Gamma Point Calculation (1 1 1, 0 0 0)</t>
+  </si>
+  <si>
+    <t>K Point Calculation (6 6 2, 1 1 1)</t>
+  </si>
+  <si>
+    <t>orginal interlayer 
+expansion [c/a]</t>
+  </si>
+  <si>
+    <t>Interlayer 
+expansion [c/a]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,8 +459,28 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,8 +672,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -742,19 +884,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -772,22 +901,63 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -801,10 +971,25 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -814,33 +999,40 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -849,6 +1041,289 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -857,79 +1332,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -977,7 +1398,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -988,45 +1409,88 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="24" fillId="36" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1034,8 +1498,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1046,36 +1534,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,9 +1543,53 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1197,38 +1699,74 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>gamma!$A$5:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>absorption_energies!$F$5:$F$13</c:f>
+              <c:f>gamma!$G$5:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.12650841999993645</c:v>
+                  <c:v>1.7211913320461354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3735660000002099E-2</c:v>
+                  <c:v>0.56962648089051426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6626810000011574E-2</c:v>
+                  <c:v>0.25680918981121914</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4672249999980522E-2</c:v>
+                  <c:v>8.3918649134308743E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.7186199999914606E-3</c:v>
+                  <c:v>-2.1002905323376765E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.9068200000401703E-3</c:v>
+                  <c:v>-1.5661617247924423E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.17862211000004891</c:v>
+                  <c:v>-0.34717376061273791</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.17181716999999708</c:v>
+                  <c:v>-0.2922040917324325</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.17629233000002387</c:v>
+                  <c:v>-0.26650209466286939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1260,6 +1798,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1458,284 +1997,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>K Point Absorption Energies</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>absorption_energies!$F$20:$F$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>7.6951339999993706E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.4580360000024939E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.7845080000001872E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.6227560000024823E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.3796729999987747E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.115529000003562E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-7.2160740000015267E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8.0902799999989838E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5FB-9B49-83A3-BBEB9F99C41A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="666150592"/>
-        <c:axId val="839233711"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="666150592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="839233711"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="839233711"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="666150592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
             <c:v>Interlayer expansion %</c:v>
           </c:tx>
           <c:spPr>
@@ -1765,72 +2026,45 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>absorption_energies!$A$20:$A$28</c:f>
+              <c:f>gamma!$A$20:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75</c:v>
-                </c:pt>
+                <c:ptCount val="21"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>absorption_energies!$G$5:$G$13</c:f>
+              <c:f>gamma!$I$5:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.419908838040285</c:v>
+                  <c:v>0.13237273705519301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45775346698012542</c:v>
+                  <c:v>0.12210986233709481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48079691301886901</c:v>
+                  <c:v>0.1208018792079127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55817104495599956</c:v>
+                  <c:v>0.11123834771530712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60869521789678438</c:v>
+                  <c:v>0.26917859896350849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60869521789678438</c:v>
+                  <c:v>0.18690759392947404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63506320380424552</c:v>
+                  <c:v>0.35281839958111572</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83037017667958157</c:v>
+                  <c:v>0.54236205880048982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84517071811619249</c:v>
+                  <c:v>0.5567854330465184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,7 +2077,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2038,6 +2271,318 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K-point absorption energy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>k!$A$5:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>k!$G$5:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0469499136689144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.918545046316965E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2169830197260085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.19124890836158442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.14638466810106665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.16134877080033075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14025316056560108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.13758886374748272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CB2-0144-B356-CB2D48318EF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="666150592"/>
+        <c:axId val="839233711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="666150592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839233711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="839233711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666150592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2052,37 +2597,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2091,9 +2606,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>interlayer expansion %</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2120,74 +2632,35 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>absorption_energies!$A$20:$A$28</c:f>
+              <c:f>k!$I$5:$I$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>6.8186160227581991E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.23723171816650201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.32217412135776158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.3282376689858838</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>0.52765362680953509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.58772826100198328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.62687744892703046</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>absorption_energies!$G$20:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.29330810248936023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35777418950791284</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3818326381667228</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38495473702771138</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.61272806478384134</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.65267639478834649</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.67391303058983698</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65573321006528185</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6473536774097336</c:v>
+                  <c:v>0.59793742396732896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2195,7 +2668,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E61-4845-95D5-84D9F9C9165A}"/>
+              <c16:uniqueId val="{00000000-8253-6946-9404-21EDBD1492EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2270,20 +2743,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2327,6 +2786,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3053,6 +3543,527 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3551,527 +4562,6 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4589,8 +5079,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4496744" cy="334194"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -4815,7 +5305,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -4857,6 +5347,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="it-IT" sz="2000" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -4885,13 +5376,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -4921,49 +5412,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E89D158-1402-37FE-B8A8-05B47F527149}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>817880</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>452120</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
@@ -4985,7 +5440,50 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC114BE-4B90-2848-B199-2B43F8224C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4993,27 +5491,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>157480</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>614680</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A269473B-7926-5C1E-F381-2E691DA90F00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B0F6B0-5A4E-0C48-8F6B-9E7A402C6125}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5021,7 +5521,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5347,10 +5847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551D8F56-50D6-914D-A7B9-95BE5B4B1EDE}">
-  <dimension ref="A2:J28"/>
+  <dimension ref="A2:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5359,622 +5859,1497 @@
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
+    <row r="2" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:12" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:10" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="24" t="s">
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>8</v>
+      <c r="L4" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
-        <f>2*$B5/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <f>2*$B5/(24-8)</f>
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="39">
         <v>-287.69342691000003</v>
       </c>
-      <c r="D5" s="9">
-        <f>$I$5*$B5</f>
+      <c r="D5" s="45">
+        <f>$K$5*$B5</f>
         <v>-2.2750997499999999</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="46">
         <f>-285.54483558</f>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="39">
         <f>$C5-D5-E5</f>
         <v>0.12650841999993645</v>
       </c>
-      <c r="G5" s="27">
-        <f>((0.8633043672-0.4420672485)-$J$5)/$J$5</f>
-        <v>0.419908838040285</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="G5" s="9">
+        <f>$F5*conversion!$D$13/$B5</f>
+        <v>1.7211913320461354</v>
+      </c>
+      <c r="H5" s="72">
+        <v>2.197247</v>
+      </c>
+      <c r="I5" s="73">
+        <f>($H5-$L$5)/$L$5</f>
+        <v>0.13237273705519301</v>
+      </c>
+      <c r="K5" s="1">
         <v>-2.2750997499999999</v>
       </c>
-      <c r="J5" s="1">
-        <f>0.7966649037-0.5</f>
-        <v>0.29666490369999998</v>
+      <c r="L5">
+        <f>1.940392</f>
+        <v>1.9403919999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
-        <f t="shared" ref="A6:A13" si="0">2*$B6/24</f>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <f>2*$B6/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="B6" s="6">
-        <f t="shared" ref="B6:B13" si="1">B5+1</f>
+      <c r="B6" s="43">
+        <f t="shared" ref="B6:B13" si="0">B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="40">
         <v>-290.01129942</v>
       </c>
-      <c r="D6" s="10">
-        <f t="shared" ref="D6:D13" si="2">$I$5*$B6</f>
+      <c r="D6" s="47">
+        <f>$K$5*$B6</f>
         <v>-4.5501994999999997</v>
       </c>
-      <c r="E6" s="16">
-        <f t="shared" ref="E6:E13" si="3">-285.54483558</f>
+      <c r="E6" s="48">
+        <f t="shared" ref="E6:E13" si="1">-285.54483558</f>
         <v>-285.54483557999998</v>
       </c>
-      <c r="F6" s="19">
-        <f t="shared" ref="F6:F13" si="4">$C6-D6-E6</f>
+      <c r="F6" s="40">
+        <f>$C6-D6-E6</f>
         <v>8.3735660000002099E-2</v>
       </c>
-      <c r="G6" s="28">
-        <f>((0.8618930176-0.4294287257)-$J$5)/$J$5</f>
-        <v>0.45775346698012542</v>
+      <c r="G6" s="10">
+        <f>$F6*conversion!$D$13/$B6</f>
+        <v>0.56962648089051426</v>
+      </c>
+      <c r="H6" s="74">
+        <v>2.177333</v>
+      </c>
+      <c r="I6" s="75">
+        <f>($H6-$L$5)/$L$5</f>
+        <v>0.12210986233709481</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <f>2*$B7/24</f>
+        <v>0.25</v>
+      </c>
+      <c r="B7" s="43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="40">
+        <v>-292.31350801999997</v>
+      </c>
+      <c r="D7" s="47">
+        <f>$K$5*$B7</f>
+        <v>-6.8252992499999996</v>
+      </c>
+      <c r="E7" s="48">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F7" s="40">
+        <f>$C7-D7-E7</f>
+        <v>5.6626810000011574E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <f>$F7*conversion!$D$13/$B7</f>
+        <v>0.25680918981121914</v>
+      </c>
+      <c r="H7" s="74">
+        <v>2.174795</v>
+      </c>
+      <c r="I7" s="75">
+        <f>($H7-$L$5)/$L$5</f>
+        <v>0.1208018792079127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <f>2*$B8/24</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B8" s="43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="40">
+        <v>-294.62056232999998</v>
+      </c>
+      <c r="D8" s="47">
+        <f>$K$5*$B8</f>
+        <v>-9.1003989999999995</v>
+      </c>
+      <c r="E8" s="48">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F8" s="40">
+        <f>$C8-D8-E8</f>
+        <v>2.4672249999980522E-2</v>
+      </c>
+      <c r="G8" s="10">
+        <f>$F8*conversion!$D$13/$B8</f>
+        <v>8.3918649134308743E-2</v>
+      </c>
+      <c r="H8" s="74">
+        <v>2.1562380000000001</v>
+      </c>
+      <c r="I8" s="75">
+        <f>($H8-$L$5)/$L$5</f>
+        <v>0.11123834771530712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <f>2*$B9/24</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B9" s="43">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="40">
+        <v>-296.92805294999999</v>
+      </c>
+      <c r="D9" s="47">
+        <f>$K$5*$B9</f>
+        <v>-11.375498749999998</v>
+      </c>
+      <c r="E9" s="48">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F9" s="40">
+        <f>$C9-D9-E9</f>
+        <v>-7.7186199999914606E-3</v>
+      </c>
+      <c r="G9" s="10">
+        <f>$F9*conversion!$D$13/$B9</f>
+        <v>-2.1002905323376765E-2</v>
+      </c>
+      <c r="H9" s="74">
+        <v>2.462704</v>
+      </c>
+      <c r="I9" s="75">
+        <f>($H9-$L$5)/$L$5</f>
+        <v>0.26917859896350849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <f>2*$B10/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="43">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="40">
+        <v>-299.20234090000002</v>
+      </c>
+      <c r="D10" s="47">
+        <f>$K$5*$B10</f>
+        <v>-13.650598499999999</v>
+      </c>
+      <c r="E10" s="48">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F10" s="40">
+        <f>$C10-D10-E10</f>
+        <v>-6.9068200000401703E-3</v>
+      </c>
+      <c r="G10" s="10">
+        <f>$F10*conversion!$D$13/$B10</f>
+        <v>-1.5661617247924423E-2</v>
+      </c>
+      <c r="H10" s="74">
+        <v>2.3030659999999998</v>
+      </c>
+      <c r="I10" s="75">
+        <f>($H10-$L$5)/$L$5</f>
+        <v>0.18690759392947404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <f>2*$B11/24</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B11" s="43">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="40">
+        <v>-301.64915594000001</v>
+      </c>
+      <c r="D11" s="47">
+        <f>$K$5*$B11</f>
+        <v>-15.92569825</v>
+      </c>
+      <c r="E11" s="48">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F11" s="40">
+        <f>$C11-D11-E11</f>
+        <v>-0.17862211000004891</v>
+      </c>
+      <c r="G11" s="10">
+        <f>$F11*conversion!$D$13/$B11</f>
+        <v>-0.34717376061273791</v>
+      </c>
+      <c r="H11" s="74">
+        <v>2.6249980000000002</v>
+      </c>
+      <c r="I11" s="75">
+        <f>($H11-$L$5)/$L$5</f>
+        <v>0.35281839958111572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <f>2*$B12/24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B12" s="43">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="40">
+        <v>-303.91745075</v>
+      </c>
+      <c r="D12" s="47">
+        <f>$K$5*$B12</f>
+        <v>-18.200797999999999</v>
+      </c>
+      <c r="E12" s="48">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F12" s="40">
+        <f>$C12-D12-E12</f>
+        <v>-0.17181716999999708</v>
+      </c>
+      <c r="G12" s="10">
+        <f>$F12*conversion!$D$13/$B12</f>
+        <v>-0.2922040917324325</v>
+      </c>
+      <c r="H12" s="74">
+        <v>2.9927869999999999</v>
+      </c>
+      <c r="I12" s="75">
+        <f>($H12-$L$5)/$L$5</f>
+        <v>0.54236205880048982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <f>2*$B13/24</f>
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="41">
+        <v>-306.19702566000001</v>
+      </c>
+      <c r="D13" s="49">
+        <f>$K$5*$B13</f>
+        <v>-20.475897749999998</v>
+      </c>
+      <c r="E13" s="50">
+        <f t="shared" si="1"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F13" s="41">
+        <f>$C13-D13-E13</f>
+        <v>-0.17629233000002387</v>
+      </c>
+      <c r="G13" s="11">
+        <f>$F13*conversion!$D$13/$B13</f>
+        <v>-0.26650209466286939</v>
+      </c>
+      <c r="H13" s="76">
+        <v>3.0207739999999998</v>
+      </c>
+      <c r="I13" s="77">
+        <f>($H13-$L$5)/$L$5</f>
+        <v>0.5567854330465184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+    </row>
+    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="85"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="87"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="87"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+    </row>
+    <row r="31" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="87"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="87"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="87"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="87"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="87"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="87"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="87"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="80"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="80"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="80"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="80"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="80"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="80"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="80"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="80"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="80"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:I3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G5:G13">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I13">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I21 I34:I40">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21 G34:G40">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB58932-CC90-EC40-AB24-4FFBB1CCC50F}">
+  <dimension ref="A2:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+    </row>
+    <row r="4" spans="1:12" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <f t="shared" ref="A5:A13" si="0">2*$B5/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39">
+        <v>-289.37711379000001</v>
+      </c>
+      <c r="D5" s="45">
+        <f>$K$5*$B5</f>
+        <v>-2.2750271099999999</v>
+      </c>
+      <c r="E5" s="46">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F13" si="1">$C5-D5-E5</f>
+        <v>7.6951339999993706E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <f>F5*conversion!$D$13/B5</f>
+        <v>1.0469499136689144</v>
+      </c>
+      <c r="H5" s="72">
+        <v>2.3426849999999999</v>
+      </c>
+      <c r="I5" s="73">
+        <f>($H5-$L$5)/$L$5</f>
+        <v>6.8186160227581991E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-2.2750271099999999</v>
+      </c>
+      <c r="L5">
+        <v>2.1931430000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B6" s="43">
+        <f t="shared" ref="B6:B12" si="2">B5+1</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="40">
+        <v>-291.74367260000002</v>
+      </c>
+      <c r="D6" s="88">
+        <f>$K$5*$B6</f>
+        <v>-4.5500542199999998</v>
+      </c>
+      <c r="E6" s="48">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.4580360000024939E-2</v>
+      </c>
+      <c r="G6" s="10">
+        <f>F6*conversion!$D$13/B6</f>
+        <v>-9.918545046316965E-2</v>
+      </c>
+      <c r="H6" s="74">
+        <v>2.7134260820748368</v>
+      </c>
+      <c r="I6" s="75">
+        <f t="shared" ref="I6:I13" si="3">($H6-$L$5)/$L$5</f>
+        <v>0.23723171816650201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="43">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="40">
+        <v>-294.05196443</v>
+      </c>
+      <c r="D7" s="88">
+        <f t="shared" ref="D7:D13" si="4">$K$5*$B7</f>
+        <v>-6.8250813299999997</v>
+      </c>
+      <c r="E7" s="48">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="10">
-        <v>-292.31350801999997</v>
-      </c>
-      <c r="D7" s="10">
-        <f t="shared" si="2"/>
-        <v>-6.8252992499999996</v>
-      </c>
-      <c r="E7" s="16">
+        <v>-4.7845080000001872E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <f>F7*conversion!$D$13/B7</f>
+        <v>-0.2169830197260085</v>
+      </c>
+      <c r="H7" s="74">
+        <v>2.8997169190369254</v>
+      </c>
+      <c r="I7" s="75">
         <f t="shared" si="3"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F7" s="19">
-        <f t="shared" si="4"/>
-        <v>5.6626810000011574E-2</v>
-      </c>
-      <c r="G7" s="28">
-        <f>((0.8633647288-0.4240642552)-$J$5)/$J$5</f>
-        <v>0.48079691301886901</v>
+        <v>0.32217412135776158</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="43">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="40">
+        <v>-296.33537402000002</v>
+      </c>
+      <c r="D8" s="88">
+        <f t="shared" si="4"/>
+        <v>-9.1001084399999996</v>
+      </c>
+      <c r="E8" s="48">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-294.62056232999998</v>
-      </c>
-      <c r="D8" s="10">
-        <f t="shared" si="2"/>
-        <v>-9.1003989999999995</v>
-      </c>
-      <c r="E8" s="16">
+        <v>-5.6227560000024823E-2</v>
+      </c>
+      <c r="G8" s="10">
+        <f>F8*conversion!$D$13/B8</f>
+        <v>-0.19124890836158442</v>
+      </c>
+      <c r="H8" s="74">
+        <v>2.9130151460727083</v>
+      </c>
+      <c r="I8" s="75">
         <f t="shared" si="3"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F8" s="19">
-        <f t="shared" si="4"/>
-        <v>2.4672249999980522E-2</v>
-      </c>
-      <c r="G8" s="28">
-        <f>((0.8690923553-0.4068376923)-$J$5)/$J$5</f>
-        <v>0.55817104495599956</v>
+        <v>0.3282376689858838</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="43">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="40">
+        <v>-298.60797029999998</v>
+      </c>
+      <c r="D9" s="88">
+        <f t="shared" si="4"/>
+        <v>-11.37513555</v>
+      </c>
+      <c r="E9" s="48">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="10">
-        <v>-296.92805294999999</v>
-      </c>
-      <c r="D9" s="10">
-        <f t="shared" si="2"/>
-        <v>-11.375498749999998</v>
-      </c>
-      <c r="E9" s="16">
+        <v>-5.3796729999987747E-2</v>
+      </c>
+      <c r="G9" s="10">
+        <f>F9*conversion!$D$13/B9</f>
+        <v>-0.14638466810106665</v>
+      </c>
+      <c r="H9" s="74">
+        <v>3.3503628580619442</v>
+      </c>
+      <c r="I9" s="75">
         <f t="shared" si="3"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F9" s="19">
-        <f t="shared" si="4"/>
-        <v>-7.7186199999914606E-3</v>
-      </c>
-      <c r="G9" s="28">
-        <f>((0.8827352815-0.4054918696)-$J$5)/$J$5</f>
-        <v>0.60869521789678438</v>
+        <v>0.52765362680953509</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="43">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="40">
+        <v>-300.90035597000002</v>
+      </c>
+      <c r="D10" s="88">
+        <f t="shared" si="4"/>
+        <v>-13.650162659999999</v>
+      </c>
+      <c r="E10" s="48">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="10">
-        <v>-299.20234090000002</v>
-      </c>
-      <c r="D10" s="10">
-        <f t="shared" si="2"/>
-        <v>-13.650598499999999</v>
-      </c>
-      <c r="E10" s="16">
+        <v>-7.115529000003562E-2</v>
+      </c>
+      <c r="G10" s="10">
+        <f>F10*conversion!$D$13/B10</f>
+        <v>-0.16134877080033075</v>
+      </c>
+      <c r="H10" s="74">
+        <v>3.4821151215186728</v>
+      </c>
+      <c r="I10" s="75">
         <f t="shared" si="3"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F10" s="19">
-        <f t="shared" si="4"/>
-        <v>-6.9068200000401703E-3</v>
-      </c>
-      <c r="G10" s="28">
-        <f>((0.8827352815-0.4054918696)-$J$5)/$J$5</f>
-        <v>0.60869521789678438</v>
+        <v>0.58772826100198328</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="43">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="40">
+        <v>-303.17638853</v>
+      </c>
+      <c r="D11" s="88">
+        <f t="shared" si="4"/>
+        <v>-15.925189769999999</v>
+      </c>
+      <c r="E11" s="48">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="10">
-        <v>-301.64915594000001</v>
-      </c>
-      <c r="D11" s="10">
-        <f t="shared" si="2"/>
-        <v>-15.92569825</v>
-      </c>
-      <c r="E11" s="16">
+        <v>-7.2160740000015267E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <f>F11*conversion!$D$13/B11</f>
+        <v>-0.14025316056560108</v>
+      </c>
+      <c r="H11" s="74">
+        <v>3.5679748889721745</v>
+      </c>
+      <c r="I11" s="75">
         <f t="shared" si="3"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F11" s="19">
-        <f t="shared" si="4"/>
-        <v>-0.17862211000004891</v>
-      </c>
-      <c r="G11" s="28">
-        <f>((0.8863248798-0.4012590119)-$J$5)/$J$5</f>
-        <v>0.63506320380424552</v>
+        <v>0.62687744892703046</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="43">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="40">
+        <v>-305.46015770000002</v>
+      </c>
+      <c r="D12" s="88">
+        <f t="shared" si="4"/>
+        <v>-18.200216879999999</v>
+      </c>
+      <c r="E12" s="48">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="10">
-        <v>-303.91745075</v>
-      </c>
-      <c r="D12" s="10">
-        <f t="shared" si="2"/>
-        <v>-18.200797999999999</v>
-      </c>
-      <c r="E12" s="16">
+        <v>-8.0902799999989838E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <f>F12*conversion!$D$13/B12</f>
+        <v>-0.13758886374748272</v>
+      </c>
+      <c r="H12" s="74">
+        <v>3.5045052758119799</v>
+      </c>
+      <c r="I12" s="75">
         <f t="shared" si="3"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F12" s="19">
-        <f t="shared" si="4"/>
-        <v>-0.17181716999999708</v>
-      </c>
-      <c r="G12" s="28">
-        <f>((0.9022008249-0.3591942327)-$J$5)/$J$5</f>
-        <v>0.83037017667958157</v>
+        <v>0.59793742396732896</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+    <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="24">
+        <v>9</v>
+      </c>
+      <c r="C13" s="76">
+        <v>-306.08814948000003</v>
+      </c>
+      <c r="D13" s="49">
+        <f t="shared" si="4"/>
+        <v>-20.475243989999999</v>
+      </c>
+      <c r="E13" s="50">
+        <v>-287.17903802000001</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="11">
-        <v>-306.19702566000001</v>
-      </c>
-      <c r="D13" s="11">
-        <f t="shared" si="2"/>
-        <v>-20.475897749999998</v>
-      </c>
-      <c r="E13" s="17">
+        <v>1.5661325300000044</v>
+      </c>
+      <c r="G13" s="11">
+        <f>F13*conversion!$D$13/B13</f>
+        <v>2.3675312463372844</v>
+      </c>
+      <c r="H13" s="76">
+        <v>2.808322975707032</v>
+      </c>
+      <c r="I13" s="77">
         <f t="shared" si="3"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" si="4"/>
-        <v>-0.17629233000002387</v>
-      </c>
-      <c r="G13" s="29">
-        <f>((0.9029325106-0.3555351172)-$J$5)/$J$5</f>
-        <v>0.84517071811619249</v>
+        <v>0.280501533966108</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:10" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="39">
-        <f>2*$B20/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9">
-        <v>-289.37711379000001</v>
-      </c>
-      <c r="D20" s="15">
-        <f>$I$20*$B20</f>
-        <v>-2.2750271099999999</v>
-      </c>
-      <c r="E20" s="12">
-        <v>-287.17903802000001</v>
-      </c>
-      <c r="F20" s="18">
-        <f>$C20-D20-E20</f>
-        <v>7.6951339999993706E-2</v>
-      </c>
-      <c r="G20" s="27">
-        <f>((0.8633043672-0.4420672485)-$J$20)/$J$20</f>
-        <v>0.29330810248936023</v>
-      </c>
-      <c r="I20" s="1">
-        <v>-2.2750271099999999</v>
-      </c>
-      <c r="J20" s="1">
-        <f>0.8257051571-0.5</f>
-        <v>0.32570515710000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="40">
-        <f t="shared" ref="A21:A28" si="5">2*$B21/24</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="B21" s="6">
-        <f t="shared" ref="B21:B27" si="6">B20+1</f>
-        <v>2</v>
-      </c>
-      <c r="C21" s="10">
-        <v>-291.74367260000002</v>
-      </c>
-      <c r="D21" s="16">
-        <f>$I$20*$B21</f>
-        <v>-4.5500542199999998</v>
-      </c>
-      <c r="E21" s="13">
-        <v>-287.17903802000001</v>
-      </c>
-      <c r="F21" s="19">
-        <f t="shared" ref="F21:F28" si="7">$C21-D21-E21</f>
-        <v>-1.4580360000024939E-2</v>
-      </c>
-      <c r="G21" s="28">
-        <f>((0.8823734886-0.4401394329)-$J$20)/$J$20</f>
-        <v>0.35777418950791284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="40">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="B22" s="6">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="C22" s="10">
-        <v>-294.05196443</v>
-      </c>
-      <c r="D22" s="16">
-        <f t="shared" ref="D22:D28" si="8">$I$20*$B22</f>
-        <v>-6.8250813299999997</v>
-      </c>
-      <c r="E22" s="13">
-        <v>-287.17903802000001</v>
-      </c>
-      <c r="F22" s="19">
-        <f t="shared" si="7"/>
-        <v>-4.7845080000001872E-2</v>
-      </c>
-      <c r="G22" s="28">
-        <f>((0.8898964206-0.4398264041)-$J$20)/$J$20</f>
-        <v>0.3818326381667228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="40">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B23" s="6">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C23" s="10">
-        <v>-296.33537402000002</v>
-      </c>
-      <c r="D23" s="16">
-        <f t="shared" si="8"/>
-        <v>-9.1001084399999996</v>
-      </c>
-      <c r="E23" s="13">
-        <v>-287.17903802000001</v>
-      </c>
-      <c r="F23" s="19">
-        <f t="shared" si="7"/>
-        <v>-5.6227560000024823E-2</v>
-      </c>
-      <c r="G23" s="28">
-        <f>((0.8880798374-0.4369929372)-$J$20)/$J$20</f>
-        <v>0.38495473702771138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="40">
-        <f t="shared" si="5"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B24" s="6">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="C24" s="10">
-        <v>-298.60797029999998</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="8"/>
-        <v>-11.37513555</v>
-      </c>
-      <c r="E24" s="13">
-        <v>-287.17903802000001</v>
-      </c>
-      <c r="F24" s="19">
-        <f t="shared" si="7"/>
-        <v>-5.3796729999987747E-2</v>
-      </c>
-      <c r="G24" s="28">
-        <f>((0.9175451566-0.3922713089)-$J$20)/$J$20</f>
-        <v>0.61272806478384134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="40">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="B25" s="6">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="C25" s="10">
-        <v>-300.90035597000002</v>
-      </c>
-      <c r="D25" s="16">
-        <f t="shared" si="8"/>
-        <v>-13.650162659999999</v>
-      </c>
-      <c r="E25" s="13">
-        <v>-287.17903802000001</v>
-      </c>
-      <c r="F25" s="19">
-        <f t="shared" si="7"/>
-        <v>-7.115529000003562E-2</v>
-      </c>
-      <c r="G25" s="28">
-        <f>((0.9260933603-0.3878081355)-$J$20)/$J$20</f>
-        <v>0.65267639478834649</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="40">
-        <f t="shared" si="5"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B26" s="6">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="C26" s="10">
-        <v>-303.17638853</v>
-      </c>
-      <c r="D26" s="16">
-        <f t="shared" si="8"/>
-        <v>-15.925189769999999</v>
-      </c>
-      <c r="E26" s="13">
-        <v>-287.17903802000001</v>
-      </c>
-      <c r="F26" s="19">
-        <f t="shared" si="7"/>
-        <v>-7.2160740000015267E-2</v>
-      </c>
-      <c r="G26" s="28">
-        <f>((0.9345926362-0.3893905296)-$J$20)/$J$20</f>
-        <v>0.67391303058983698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="40">
-        <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B27" s="6">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="C27" s="10">
-        <v>-305.46015770000002</v>
-      </c>
-      <c r="D27" s="16">
-        <f>$I$20*$B27</f>
-        <v>-18.200216879999999</v>
-      </c>
-      <c r="E27" s="13">
-        <v>-287.17903802000001</v>
-      </c>
-      <c r="F27" s="19">
-        <f t="shared" si="7"/>
-        <v>-8.0902799999989838E-2</v>
-      </c>
-      <c r="G27" s="28">
-        <f>((0.9307256175-0.3914447722)-$J$20)/$J$20</f>
-        <v>0.65573321006528185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41">
-        <f t="shared" si="5"/>
-        <v>0.75</v>
-      </c>
-      <c r="B28" s="7">
-        <v>9</v>
-      </c>
-      <c r="C28" s="8">
-        <v>-306.08814948000003</v>
-      </c>
-      <c r="D28" s="17">
-        <f t="shared" si="8"/>
-        <v>-20.475243989999999</v>
-      </c>
-      <c r="E28" s="14">
-        <v>-287.17903802000001</v>
-      </c>
-      <c r="F28" s="20">
-        <f t="shared" si="7"/>
-        <v>1.5661325300000044</v>
-      </c>
-      <c r="G28" s="29">
-        <f>((0.9127527639-0.3762011756)-$J$20)/$J$20</f>
-        <v>0.6473536774097336</v>
-      </c>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B18:G18"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:I3"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <conditionalFormatting sqref="I5:I13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52307182-CA5F-8249-ABFF-5D07F4DDDD25}">
+  <dimension ref="B1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="69"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36">
+        <v>27.210699999999999</v>
+      </c>
+      <c r="E5" s="36">
+        <v>219474.63</v>
+      </c>
+      <c r="F5" s="36">
+        <v>627.50300000000004</v>
+      </c>
+      <c r="G5" s="36">
+        <v>2625.5</v>
+      </c>
+      <c r="H5" s="36">
+        <v>315777</v>
+      </c>
+      <c r="I5" s="36">
+        <v>4.3599999999999999E-18</v>
+      </c>
+      <c r="J5" s="36">
+        <v>6579660000000000</v>
+      </c>
+      <c r="K5" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="37">
+        <v>3.6750199999999997E-2</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29">
+        <v>8065.73</v>
+      </c>
+      <c r="F6" s="29">
+        <v>23.0609</v>
+      </c>
+      <c r="G6" s="29">
+        <v>96.486900000000006</v>
+      </c>
+      <c r="H6" s="29">
+        <v>11604.9</v>
+      </c>
+      <c r="I6" s="30">
+        <v>1.5999999999999999E-19</v>
+      </c>
+      <c r="J6" s="29">
+        <v>241804000000000</v>
+      </c>
+      <c r="K6" s="32">
+        <f>$C6*$K$5</f>
+        <v>7.3500399999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="37">
+        <v>4.5563300000000003E-6</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1.23981E-4</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29">
+        <v>2.8590999999999998E-3</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1.1963E-2</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1.42879</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1.9863000000000001E-23</v>
+      </c>
+      <c r="J7" s="29">
+        <v>29979300000</v>
+      </c>
+      <c r="K7" s="32">
+        <f t="shared" ref="K7:K13" si="0">$C7*$K$5</f>
+        <v>9.1126600000000006E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="37">
+        <v>1.59362E-3</v>
+      </c>
+      <c r="D8" s="29">
+        <v>4.3363400000000003E-2</v>
+      </c>
+      <c r="E8" s="29">
+        <v>349.75700000000001</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1</v>
+      </c>
+      <c r="G8" s="29">
+        <v>4.1840000000000002</v>
+      </c>
+      <c r="H8" s="29">
+        <v>503.22800000000001</v>
+      </c>
+      <c r="I8" s="29">
+        <v>6.9500000000000005E-21</v>
+      </c>
+      <c r="J8" s="29">
+        <v>10485400000000</v>
+      </c>
+      <c r="K8" s="32">
+        <f t="shared" si="0"/>
+        <v>3.18724E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="37">
+        <v>3.8088E-4</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1.0364099999999999E-2</v>
+      </c>
+      <c r="E9" s="29">
+        <v>83.593000000000004</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.23900099999999999</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="29">
+        <v>120.274</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1.6599999999999999E-21</v>
+      </c>
+      <c r="J9" s="29">
+        <v>2506070000000</v>
+      </c>
+      <c r="K9" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6176E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="37">
+        <v>3.1667800000000002E-6</v>
+      </c>
+      <c r="D10" s="29">
+        <v>8.6170500000000004E-5</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0.69502799999999998</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1.9872000000000002E-3</v>
+      </c>
+      <c r="G10" s="29">
+        <v>8.3140000000000002E-3</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1</v>
+      </c>
+      <c r="I10" s="29">
+        <v>1.38054E-23</v>
+      </c>
+      <c r="J10" s="29">
+        <v>20836400000</v>
+      </c>
+      <c r="K10" s="32">
+        <f t="shared" si="0"/>
+        <v>6.3335600000000004E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="37">
+        <v>2.294E+17</v>
+      </c>
+      <c r="D11" s="29">
+        <v>6.24181E+18</v>
+      </c>
+      <c r="E11" s="29">
+        <v>5.0344500000000003E+22</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1.44E+20</v>
+      </c>
+      <c r="G11" s="29">
+        <v>6.02E+20</v>
+      </c>
+      <c r="H11" s="29">
+        <v>7.2435399999999999E+22</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1.5093E+33</v>
+      </c>
+      <c r="K11" s="32">
+        <f t="shared" si="0"/>
+        <v>4.588E+17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="37">
+        <v>1.5198300000000001E-16</v>
+      </c>
+      <c r="D12" s="29">
+        <v>4.13558E-15</v>
+      </c>
+      <c r="E12" s="29">
+        <v>3.3356499999999997E-11</v>
+      </c>
+      <c r="F12" s="29">
+        <v>9.5370000000000002E-14</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29">
+        <v>4.7993E-11</v>
+      </c>
+      <c r="I12" s="29">
+        <v>6.62561E-34</v>
+      </c>
+      <c r="J12" s="29">
+        <v>1</v>
+      </c>
+      <c r="K12" s="32">
+        <f t="shared" si="0"/>
+        <v>3.0396600000000002E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="34">
+        <f>D$5*$C$13</f>
+        <v>13.60535</v>
+      </c>
+      <c r="E13" s="34">
+        <f t="shared" ref="E13:J13" si="1">E$5*$C$13</f>
+        <v>109737.315</v>
+      </c>
+      <c r="F13" s="34">
+        <f t="shared" si="1"/>
+        <v>313.75150000000002</v>
+      </c>
+      <c r="G13" s="34">
+        <f t="shared" si="1"/>
+        <v>1312.75</v>
+      </c>
+      <c r="H13" s="34">
+        <f t="shared" si="1"/>
+        <v>157888.5</v>
+      </c>
+      <c r="I13" s="34">
+        <f t="shared" si="1"/>
+        <v>2.18E-18</v>
+      </c>
+      <c r="J13" s="34">
+        <f t="shared" si="1"/>
+        <v>3289830000000000</v>
+      </c>
+      <c r="K13" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DFT_absorption/absorption_energies.xlsx
+++ b/DFT_absorption/absorption_energies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardocabiati/Desktop/Cose_brutte_PoliMI/V_anno/II_semestre/Molecular_Modeling_for_Materials/MMoM_project/MMoM_project/DFT_absorption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE8749-CABC-E54C-AE61-6B141CAD8D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA11684-E055-A441-9245-495DAAE20551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1100" windowWidth="25220" windowHeight="17440" activeTab="1" xr2:uid="{BDE33051-051D-5449-958A-46A8E86A2B7A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>number of hydrogen
  moleclues</t>
@@ -290,6 +290,9 @@
   <si>
     <t>Interlayer 
 expansion [c/a]</t>
+  </si>
+  <si>
+    <t>Strain energy [Ry]</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1401,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1589,6 +1592,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -6543,14 +6553,14 @@
   <dimension ref="A2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="5" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
@@ -6926,6 +6936,24 @@
       <c r="I13" s="77">
         <f t="shared" si="3"/>
         <v>0.280501533966108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="89">
+        <v>1</v>
+      </c>
+      <c r="C19" s="90">
+        <f>E5+287.15029323</f>
+        <v>-2.8744790000018838E-2</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">

--- a/DFT_absorption/absorption_energies.xlsx
+++ b/DFT_absorption/absorption_energies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardocabiati/Desktop/Cose_brutte_PoliMI/V_anno/II_semestre/Molecular_Modeling_for_Materials/MMoM_project/MMoM_project/DFT_absorption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA11684-E055-A441-9245-495DAAE20551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE32D95-6A54-AC41-8138-6F767FB4D9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1100" windowWidth="25220" windowHeight="17440" activeTab="1" xr2:uid="{BDE33051-051D-5449-958A-46A8E86A2B7A}"/>
+    <workbookView xWindow="3540" yWindow="1060" windowWidth="25220" windowHeight="17440" activeTab="2" xr2:uid="{BDE33051-051D-5449-958A-46A8E86A2B7A}"/>
   </bookViews>
   <sheets>
     <sheet name="gamma" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>number of hydrogen
  moleclues</t>
@@ -293,6 +293,51 @@
   </si>
   <si>
     <t>Strain energy [Ry]</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>no strain</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [eV/H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1401,7 +1446,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1513,20 +1558,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1546,12 +1606,23 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1560,44 +1631,14 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2040,6 +2081,18 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5089,8 +5142,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4496744" cy="334194"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -5315,7 +5368,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -5859,15 +5912,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551D8F56-50D6-914D-A7B9-95BE5B4B1EDE}">
   <dimension ref="A2:L60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
@@ -5881,29 +5934,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -5930,7 +5983,7 @@
       <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="57" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="28" t="s">
@@ -5952,7 +6005,7 @@
         <v>-287.69342691000003</v>
       </c>
       <c r="D5" s="45">
-        <f>$K$5*$B5</f>
+        <f t="shared" ref="D5:D13" si="0">$K$5*$B5</f>
         <v>-2.2750997499999999</v>
       </c>
       <c r="E5" s="46">
@@ -5960,18 +6013,18 @@
         <v>-285.54483557999998</v>
       </c>
       <c r="F5" s="39">
-        <f>$C5-D5-E5</f>
+        <f t="shared" ref="F5:F13" si="1">$C5-D5-E5</f>
         <v>0.12650841999993645</v>
       </c>
       <c r="G5" s="9">
         <f>$F5*conversion!$D$13/$B5</f>
         <v>1.7211913320461354</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="51">
         <v>2.197247</v>
       </c>
-      <c r="I5" s="73">
-        <f>($H5-$L$5)/$L$5</f>
+      <c r="I5" s="52">
+        <f t="shared" ref="I5:I13" si="2">($H5-$L$5)/$L$5</f>
         <v>0.13237273705519301</v>
       </c>
       <c r="K5" s="1">
@@ -5984,515 +6037,496 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
-        <f>2*$B6/24</f>
+        <f t="shared" ref="A6:A13" si="3">2*$B6/24</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="B6" s="43">
-        <f t="shared" ref="B6:B13" si="0">B5+1</f>
+        <f t="shared" ref="B6:B13" si="4">B5+1</f>
         <v>2</v>
       </c>
       <c r="C6" s="40">
         <v>-290.01129942</v>
       </c>
       <c r="D6" s="47">
-        <f>$K$5*$B6</f>
+        <f t="shared" si="0"/>
         <v>-4.5501994999999997</v>
       </c>
       <c r="E6" s="48">
-        <f t="shared" ref="E6:E13" si="1">-285.54483558</f>
+        <f t="shared" ref="E6:E13" si="5">-285.54483558</f>
         <v>-285.54483557999998</v>
       </c>
       <c r="F6" s="40">
-        <f>$C6-D6-E6</f>
+        <f t="shared" si="1"/>
         <v>8.3735660000002099E-2</v>
       </c>
       <c r="G6" s="10">
         <f>$F6*conversion!$D$13/$B6</f>
         <v>0.56962648089051426</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="53">
         <v>2.177333</v>
       </c>
-      <c r="I6" s="75">
-        <f>($H6-$L$5)/$L$5</f>
+      <c r="I6" s="54">
+        <f t="shared" si="2"/>
         <v>0.12210986233709481</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
-        <f>2*$B7/24</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="B7" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="C7" s="40">
         <v>-292.31350801999997</v>
       </c>
       <c r="D7" s="47">
-        <f>$K$5*$B7</f>
+        <f t="shared" si="0"/>
         <v>-6.8252992499999996</v>
       </c>
       <c r="E7" s="48">
+        <f t="shared" si="5"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F7" s="40">
         <f t="shared" si="1"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F7" s="40">
-        <f>$C7-D7-E7</f>
         <v>5.6626810000011574E-2</v>
       </c>
       <c r="G7" s="10">
         <f>$F7*conversion!$D$13/$B7</f>
         <v>0.25680918981121914</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="53">
         <v>2.174795</v>
       </c>
-      <c r="I7" s="75">
-        <f>($H7-$L$5)/$L$5</f>
+      <c r="I7" s="54">
+        <f t="shared" si="2"/>
         <v>0.1208018792079127</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
-        <f>2*$B8/24</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="B8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C8" s="40">
         <v>-294.62056232999998</v>
       </c>
       <c r="D8" s="47">
-        <f>$K$5*$B8</f>
+        <f t="shared" si="0"/>
         <v>-9.1003989999999995</v>
       </c>
       <c r="E8" s="48">
+        <f t="shared" si="5"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F8" s="40">
         <f t="shared" si="1"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F8" s="40">
-        <f>$C8-D8-E8</f>
         <v>2.4672249999980522E-2</v>
       </c>
       <c r="G8" s="10">
         <f>$F8*conversion!$D$13/$B8</f>
         <v>8.3918649134308743E-2</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="53">
         <v>2.1562380000000001</v>
       </c>
-      <c r="I8" s="75">
-        <f>($H8-$L$5)/$L$5</f>
+      <c r="I8" s="54">
+        <f t="shared" si="2"/>
         <v>0.11123834771530712</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
-        <f>2*$B9/24</f>
+        <f t="shared" si="3"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="B9" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C9" s="40">
         <v>-296.92805294999999</v>
       </c>
       <c r="D9" s="47">
-        <f>$K$5*$B9</f>
+        <f t="shared" si="0"/>
         <v>-11.375498749999998</v>
       </c>
       <c r="E9" s="48">
+        <f t="shared" si="5"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F9" s="40">
         <f t="shared" si="1"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F9" s="40">
-        <f>$C9-D9-E9</f>
         <v>-7.7186199999914606E-3</v>
       </c>
       <c r="G9" s="10">
         <f>$F9*conversion!$D$13/$B9</f>
         <v>-2.1002905323376765E-2</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="53">
         <v>2.462704</v>
       </c>
-      <c r="I9" s="75">
-        <f>($H9-$L$5)/$L$5</f>
+      <c r="I9" s="54">
+        <f t="shared" si="2"/>
         <v>0.26917859896350849</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
-        <f>2*$B10/24</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="B10" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C10" s="40">
         <v>-299.20234090000002</v>
       </c>
       <c r="D10" s="47">
-        <f>$K$5*$B10</f>
+        <f t="shared" si="0"/>
         <v>-13.650598499999999</v>
       </c>
       <c r="E10" s="48">
+        <f t="shared" si="5"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F10" s="40">
         <f t="shared" si="1"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F10" s="40">
-        <f>$C10-D10-E10</f>
         <v>-6.9068200000401703E-3</v>
       </c>
       <c r="G10" s="10">
         <f>$F10*conversion!$D$13/$B10</f>
         <v>-1.5661617247924423E-2</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="53">
         <v>2.3030659999999998</v>
       </c>
-      <c r="I10" s="75">
-        <f>($H10-$L$5)/$L$5</f>
+      <c r="I10" s="54">
+        <f t="shared" si="2"/>
         <v>0.18690759392947404</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
-        <f>2*$B11/24</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="B11" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C11" s="40">
         <v>-301.64915594000001</v>
       </c>
       <c r="D11" s="47">
-        <f>$K$5*$B11</f>
+        <f t="shared" si="0"/>
         <v>-15.92569825</v>
       </c>
       <c r="E11" s="48">
+        <f t="shared" si="5"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F11" s="40">
         <f t="shared" si="1"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F11" s="40">
-        <f>$C11-D11-E11</f>
         <v>-0.17862211000004891</v>
       </c>
       <c r="G11" s="10">
         <f>$F11*conversion!$D$13/$B11</f>
         <v>-0.34717376061273791</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="53">
         <v>2.6249980000000002</v>
       </c>
-      <c r="I11" s="75">
-        <f>($H11-$L$5)/$L$5</f>
+      <c r="I11" s="54">
+        <f t="shared" si="2"/>
         <v>0.35281839958111572</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
-        <f>2*$B12/24</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="B12" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C12" s="40">
         <v>-303.91745075</v>
       </c>
       <c r="D12" s="47">
-        <f>$K$5*$B12</f>
+        <f t="shared" si="0"/>
         <v>-18.200797999999999</v>
       </c>
       <c r="E12" s="48">
+        <f t="shared" si="5"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F12" s="40">
         <f t="shared" si="1"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F12" s="40">
-        <f>$C12-D12-E12</f>
         <v>-0.17181716999999708</v>
       </c>
       <c r="G12" s="10">
         <f>$F12*conversion!$D$13/$B12</f>
         <v>-0.2922040917324325</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="53">
         <v>2.9927869999999999</v>
       </c>
-      <c r="I12" s="75">
-        <f>($H12-$L$5)/$L$5</f>
+      <c r="I12" s="54">
+        <f t="shared" si="2"/>
         <v>0.54236205880048982</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
-        <f>2*$B13/24</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="B13" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C13" s="41">
         <v>-306.19702566000001</v>
       </c>
       <c r="D13" s="49">
-        <f>$K$5*$B13</f>
+        <f t="shared" si="0"/>
         <v>-20.475897749999998</v>
       </c>
       <c r="E13" s="50">
+        <f t="shared" si="5"/>
+        <v>-285.54483557999998</v>
+      </c>
+      <c r="F13" s="41">
         <f t="shared" si="1"/>
-        <v>-285.54483557999998</v>
-      </c>
-      <c r="F13" s="41">
-        <f>$C13-D13-E13</f>
         <v>-0.17629233000002387</v>
       </c>
       <c r="G13" s="11">
         <f>$F13*conversion!$D$13/$B13</f>
         <v>-0.26650209466286939</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="55">
         <v>3.0207739999999998</v>
       </c>
-      <c r="I13" s="77">
-        <f>($H13-$L$5)/$L$5</f>
+      <c r="I13" s="56">
+        <f t="shared" si="2"/>
         <v>0.5567854330465184</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
+    <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:12" ht="41" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="85"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
+      <c r="A19" s="18">
+        <f>2*$B19/(24-8)</f>
+        <v>0.125</v>
+      </c>
+      <c r="B19" s="23">
+        <v>1</v>
+      </c>
+      <c r="C19" s="46">
+        <f>E5+285.43945842</f>
+        <v>-0.10537715999998909</v>
+      </c>
+      <c r="D19" s="88">
+        <f>(F5+C19)*conversion!$D$13/B19</f>
+        <v>0.28749818824028384</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="87"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <f t="shared" ref="A20:A23" si="6">2*$B20/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B20" s="43">
+        <f t="shared" ref="B20:B23" si="7">B19+1</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="48">
+        <f>E5+285.43344721</f>
+        <v>-0.11138836999998603</v>
+      </c>
+      <c r="D20" s="89">
+        <f>(F6+C20)*conversion!$D$13/B20</f>
+        <v>-0.18811239899914065</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="87"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="B21" s="43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C21" s="48">
+        <f>E5+285.42499074</f>
+        <v>-0.11984483999998474</v>
+      </c>
+      <c r="D21" s="89">
+        <f>(F7+C21)*conversion!$D$13/B21</f>
+        <v>-0.28670114148671161</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+    </row>
+    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="19">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B22" s="43">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C22" s="54">
+        <f>E5+285.41635528</f>
+        <v>-0.12848029999997834</v>
+      </c>
+      <c r="D22" s="89">
+        <f>(F8+C22)*conversion!$D$13/B22</f>
+        <v>-0.35308621326686757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <f t="shared" si="6"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B23" s="24">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C23" s="56">
+        <f>E5+285.44956577</f>
+        <v>-9.5269809999990684E-2</v>
+      </c>
+      <c r="D23" s="17">
+        <f>(F9+C23)*conversion!$D$13/B23</f>
+        <v>-0.28023872722005139</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="63"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="63"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="87"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="63"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="87"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="63"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="87"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="63"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="87"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="63"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="63"/>
+      <c r="B40" s="1"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="1"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="80"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="80"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="80"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="80"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="80"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="80"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="80"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="80"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="80"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6500,6 +6534,18 @@
   </mergeCells>
   <conditionalFormatting sqref="G5:G13">
     <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21 G34:G40">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6530,18 +6576,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G21 G34:G40">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -6550,10 +6584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB58932-CC90-EC40-AB24-4FFBB1CCC50F}">
-  <dimension ref="A2:L20"/>
+  <dimension ref="A2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6572,17 +6606,17 @@
   <sheetData>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -6606,10 +6640,10 @@
       <c r="G4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="59" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -6645,10 +6679,10 @@
         <f>F5*conversion!$D$13/B5</f>
         <v>1.0469499136689144</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="51">
         <v>2.3426849999999999</v>
       </c>
-      <c r="I5" s="73">
+      <c r="I5" s="52">
         <f>($H5-$L$5)/$L$5</f>
         <v>6.8186160227581991E-2</v>
       </c>
@@ -6671,7 +6705,7 @@
       <c r="C6" s="40">
         <v>-291.74367260000002</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="47">
         <f>$K$5*$B6</f>
         <v>-4.5500542199999998</v>
       </c>
@@ -6686,10 +6720,10 @@
         <f>F6*conversion!$D$13/B6</f>
         <v>-9.918545046316965E-2</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="53">
         <v>2.7134260820748368</v>
       </c>
-      <c r="I6" s="75">
+      <c r="I6" s="54">
         <f t="shared" ref="I6:I13" si="3">($H6-$L$5)/$L$5</f>
         <v>0.23723171816650201</v>
       </c>
@@ -6706,7 +6740,7 @@
       <c r="C7" s="40">
         <v>-294.05196443</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="47">
         <f t="shared" ref="D7:D13" si="4">$K$5*$B7</f>
         <v>-6.8250813299999997</v>
       </c>
@@ -6721,10 +6755,10 @@
         <f>F7*conversion!$D$13/B7</f>
         <v>-0.2169830197260085</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="53">
         <v>2.8997169190369254</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="54">
         <f t="shared" si="3"/>
         <v>0.32217412135776158</v>
       </c>
@@ -6741,7 +6775,7 @@
       <c r="C8" s="40">
         <v>-296.33537402000002</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="47">
         <f t="shared" si="4"/>
         <v>-9.1001084399999996</v>
       </c>
@@ -6756,10 +6790,10 @@
         <f>F8*conversion!$D$13/B8</f>
         <v>-0.19124890836158442</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="53">
         <v>2.9130151460727083</v>
       </c>
-      <c r="I8" s="75">
+      <c r="I8" s="54">
         <f t="shared" si="3"/>
         <v>0.3282376689858838</v>
       </c>
@@ -6776,7 +6810,7 @@
       <c r="C9" s="40">
         <v>-298.60797029999998</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="47">
         <f t="shared" si="4"/>
         <v>-11.37513555</v>
       </c>
@@ -6791,10 +6825,10 @@
         <f>F9*conversion!$D$13/B9</f>
         <v>-0.14638466810106665</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="53">
         <v>3.3503628580619442</v>
       </c>
-      <c r="I9" s="75">
+      <c r="I9" s="54">
         <f t="shared" si="3"/>
         <v>0.52765362680953509</v>
       </c>
@@ -6811,7 +6845,7 @@
       <c r="C10" s="40">
         <v>-300.90035597000002</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="47">
         <f t="shared" si="4"/>
         <v>-13.650162659999999</v>
       </c>
@@ -6826,10 +6860,10 @@
         <f>F10*conversion!$D$13/B10</f>
         <v>-0.16134877080033075</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="53">
         <v>3.4821151215186728</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="54">
         <f t="shared" si="3"/>
         <v>0.58772826100198328</v>
       </c>
@@ -6846,7 +6880,7 @@
       <c r="C11" s="40">
         <v>-303.17638853</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="47">
         <f t="shared" si="4"/>
         <v>-15.925189769999999</v>
       </c>
@@ -6861,10 +6895,10 @@
         <f>F11*conversion!$D$13/B11</f>
         <v>-0.14025316056560108</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="53">
         <v>3.5679748889721745</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="54">
         <f t="shared" si="3"/>
         <v>0.62687744892703046</v>
       </c>
@@ -6881,7 +6915,7 @@
       <c r="C12" s="40">
         <v>-305.46015770000002</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="47">
         <f t="shared" si="4"/>
         <v>-18.200216879999999</v>
       </c>
@@ -6896,10 +6930,10 @@
         <f>F12*conversion!$D$13/B12</f>
         <v>-0.13758886374748272</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="53">
         <v>3.5045052758119799</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="54">
         <f t="shared" si="3"/>
         <v>0.59793742396732896</v>
       </c>
@@ -6912,7 +6946,7 @@
       <c r="B13" s="24">
         <v>9</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="55">
         <v>-306.08814948000003</v>
       </c>
       <c r="D13" s="49">
@@ -6930,53 +6964,36 @@
         <f>F13*conversion!$D$13/B13</f>
         <v>2.3675312463372844</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="55">
         <v>2.808322975707032</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="56">
         <f t="shared" si="3"/>
         <v>0.280501533966108</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:6" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="66" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="89">
+    <row r="19" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="64">
         <v>1</v>
       </c>
-      <c r="C19" s="90">
+      <c r="C19" s="65">
         <f>E5+287.15029323</f>
         <v>-2.8744790000018838E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:I3"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:I13">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G5:G13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -6989,6 +7006,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6998,70 +7025,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52307182-CA5F-8249-ABFF-5D07F4DDDD25}">
   <dimension ref="B1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="69"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="52"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="2:11" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
